--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -7368,36 +7368,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9399,23 +9399,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9995,23 +9995,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10598,23 +10598,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11193,23 +11193,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11795,23 +11795,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12419,23 +12419,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13028,23 +13028,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13649,23 +13649,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14261,23 +14261,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14881,23 +14881,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15479,23 +15479,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16081,23 +16081,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -5703,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6839,9 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7371,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9399,23 +9402,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9995,23 +9998,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10598,23 +10601,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11193,23 +11196,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11795,23 +11798,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11990,8 +11993,12 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="125" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12419,23 +12426,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13028,23 +13035,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13649,23 +13656,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14261,23 +14268,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14881,23 +14888,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15479,23 +15486,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16081,23 +16088,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -5703,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6839,27 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7389,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9412,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +10008,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10611,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11206,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11808,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,8 +12003,12 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="125" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -11993,8 +12018,12 @@
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="125" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12411,23 +12440,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13020,23 +13049,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13641,23 +13670,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14253,23 +14282,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +14902,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15500,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16102,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -5703,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6839,9 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12003,10 +12006,10 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="496" t="n">
+      <c r="C18" s="497" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E18" s="496" t="n">
+      <c r="E18" s="497" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G18" s="125" t="n">
@@ -12018,10 +12021,10 @@
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="496" t="n">
+      <c r="C19" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="496" t="n">
+      <c r="E19" s="497" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="G19" s="125" t="n">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -5759,7 +5759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6919,6 +6919,9 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7448,36 +7451,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9471,23 +9474,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10067,23 +10070,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10670,23 +10673,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11265,23 +11268,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11867,23 +11870,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12052,8 +12055,12 @@
       <c r="B17" s="135" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="E17" s="136"/>
+      <c r="C17" s="498" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="498" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="133" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12492,23 +12499,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13101,23 +13108,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13722,23 +13729,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14334,23 +14341,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14954,23 +14961,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15552,23 +15559,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16154,23 +16161,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.30.65.3\data\Fichajes\Palobiofarma, S.L Mataró\"/>
     </mc:Choice>
@@ -6730,16 +6730,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="8" width="6.81640625" customWidth="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1"/>
-    <col min="10" max="16" width="6.81640625" customWidth="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1"/>
-    <col min="18" max="24" width="6.81640625" customWidth="1"/>
-    <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="6" customWidth="1"/>
-    <col min="27" max="29" width="21.81640625" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="25.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -8734,18 +8734,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9316,18 +9316,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9906,18 +9906,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -10487,18 +10487,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -11076,18 +11076,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -11741,6 +11741,7 @@
       <c r="H62" s="395"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -11765,18 +11766,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12418,6 +12419,7 @@
       <c r="H62" s="406"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -12442,18 +12444,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -13118,6 +13120,7 @@
       <c r="H62" s="412"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13142,18 +13145,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -13791,6 +13794,7 @@
       <c r="H62" s="420"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13815,18 +13819,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -14428,18 +14432,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -15013,18 +15017,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -15602,18 +15606,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,12 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1594,6 +1602,24 @@
     </xf>
     <xf borderId="31" fillId="12" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,20 +2228,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.86"/>
-    <col customWidth="1" min="2" max="8" width="6.86"/>
-    <col customWidth="1" min="9" max="9" width="2.86"/>
-    <col customWidth="1" min="10" max="16" width="6.86"/>
-    <col customWidth="1" min="17" max="17" width="2.86"/>
-    <col customWidth="1" min="18" max="24" width="6.86"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.86"/>
+    <col min="1" max="1" customWidth="true" width="2.86" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.86" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.86" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.86" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.86" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.86" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5157,24 +5184,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -6654,24 +6682,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -8158,24 +8187,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -9654,24 +9684,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -11157,24 +11188,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -12759,24 +12791,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -14349,24 +14382,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -15963,24 +15997,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -17550,24 +17585,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -17736,8 +17772,12 @@
       <c r="B17" s="121">
         <v>2.0</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="125" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E17" s="125" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G17" s="106">
         <f t="shared" ref="G17:G19" si="1">IF((E17-C17)*24&lt;=4,(E17-C17)*24,(E17-C17)*24-1)</f>
         <v>0</v>
@@ -17747,8 +17787,12 @@
       <c r="B18" s="121">
         <v>3.0</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="E18" s="109"/>
+      <c r="C18" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17758,8 +17802,12 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="E19" s="109"/>
+      <c r="C19" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17817,8 +17865,12 @@
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="C24" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E24" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G24" s="106">
         <f t="shared" ref="G24:G28" si="2">IF((E24-C24)*24&lt;=4,(E24-C24)*24,(E24-C24)*24-1)</f>
         <v>0</v>
@@ -17828,8 +17880,12 @@
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="C25" s="125" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="125" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17839,8 +17895,12 @@
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="C26" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17850,8 +17910,12 @@
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E27" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G27" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17861,8 +17925,12 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="C28" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17892,8 +17960,12 @@
       <c r="B31" s="121">
         <v>16.0</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="E31" s="109"/>
+      <c r="C31" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="106">
         <f t="shared" ref="G31:G35" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
         <v>0</v>
@@ -17903,8 +17975,12 @@
       <c r="B32" s="121">
         <v>17.0</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="E32" s="109"/>
+      <c r="C32" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E32" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G32" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17914,8 +17990,12 @@
       <c r="B33" s="121">
         <v>18.0</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="E33" s="109"/>
+      <c r="C33" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E33" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G33" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17925,8 +18005,12 @@
       <c r="B34" s="121">
         <v>19.0</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="E34" s="109"/>
+      <c r="C34" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17936,8 +18020,12 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="E35" s="109"/>
+      <c r="C35" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E35" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G35" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17967,8 +18055,12 @@
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="E38" s="109"/>
+      <c r="C38" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="106">
         <f t="shared" ref="G38:G42" si="4">IF((E38-C38)*24&lt;=4,(E38-C38)*24,(E38-C38)*24-1)</f>
         <v>0</v>
@@ -17978,8 +18070,12 @@
       <c r="B39" s="121">
         <v>24.0</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="E39" s="109"/>
+      <c r="C39" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E39" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G39" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -17989,8 +18085,12 @@
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="E40" s="109"/>
+      <c r="C40" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -18000,8 +18100,12 @@
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="E41" s="109"/>
+      <c r="C41" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E41" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G41" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -18011,8 +18115,12 @@
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="E42" s="109"/>
+      <c r="C42" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -18042,8 +18150,12 @@
       <c r="B45" s="121">
         <v>30.0</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="125" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="125" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="106">
         <f t="shared" ref="G45:G46" si="5">IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
@@ -18053,8 +18165,12 @@
       <c r="B46" s="121">
         <v>31.0</v>
       </c>
-      <c r="C46" s="109"/>
-      <c r="E46" s="109"/>
+      <c r="C46" s="125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E46" s="125" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G46" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19077,24 +19193,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -19242,33 +19359,42 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="G16" s="106">
-        <f t="shared" ref="G16:G18" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="121">
         <v>2.0</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="G17" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="121">
         <v>3.0</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="G18" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C18" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -19305,21 +19431,28 @@
       <c r="B22" s="121">
         <v>7.0</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="G22" s="106">
-        <f t="shared" ref="G22:G25" si="2">IF((E22-C22)*24&lt;=4,(E22-C22)*24,(E22-C22)*24-1)</f>
-        <v>0</v>
+      <c r="C22" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="C23" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E23" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G23" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="2" ref="G23:G25">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -19327,8 +19460,12 @@
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="C24" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19338,8 +19475,12 @@
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="C25" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19369,8 +19510,12 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="C28" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E28" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G28" s="106">
         <f t="shared" ref="G28:G32" si="3">IF((E28-C28)*24&lt;=4,(E28-C28)*24,(E28-C28)*24-1)</f>
         <v>0</v>
@@ -19380,8 +19525,12 @@
       <c r="B29" s="121">
         <v>14.0</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="C29" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E29" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G29" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19391,8 +19540,12 @@
       <c r="B30" s="121">
         <v>15.0</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="E30" s="109"/>
+      <c r="C30" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19402,8 +19555,12 @@
       <c r="B31" s="121">
         <v>16.0</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="E31" s="109"/>
+      <c r="C31" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E31" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G31" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19413,8 +19570,12 @@
       <c r="B32" s="121">
         <v>17.0</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="E32" s="109"/>
+      <c r="C32" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="106">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19444,8 +19605,12 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="E35" s="109"/>
+      <c r="C35" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="106">
         <f t="shared" ref="G35:G38" si="4">IF((E35-C35)*24&lt;=4,(E35-C35)*24,(E35-C35)*24-1)</f>
         <v>0</v>
@@ -19455,8 +19620,12 @@
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="E36" s="109"/>
+      <c r="C36" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E36" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G36" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -19466,8 +19635,12 @@
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="E37" s="109"/>
+      <c r="C37" s="127" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="127" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -19477,8 +19650,12 @@
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="E38" s="109"/>
+      <c r="C38" s="127" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E38" s="127" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G38" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -20576,24 +20753,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20737,8 +20915,12 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="E16" s="109"/>
+      <c r="C16" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="106">
         <f>IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -20768,8 +20950,12 @@
       <c r="B19" s="121">
         <v>4.0</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="E19" s="109"/>
+      <c r="C19" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" ref="G19:G23" si="1">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
         <v>0</v>
@@ -20779,8 +20965,12 @@
       <c r="B20" s="121">
         <v>5.0</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="E20" s="109"/>
+      <c r="C20" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20790,33 +20980,42 @@
       <c r="B21" s="121">
         <v>6.0</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="G21" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C21" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="121">
         <v>7.0</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="G22" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C22" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="G23" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C23" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -20843,55 +21042,70 @@
       <c r="B26" s="121">
         <v>11.0</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="G26" s="106">
-        <f t="shared" ref="G26:G30" si="2">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
-        <v>0</v>
+      <c r="C26" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="121">
         <v>12.0</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="G27" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="G28" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C28" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="B29" s="121">
         <v>14.0</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="G29" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C29" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="B30" s="121">
         <v>15.0</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="G30" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C30" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -20918,55 +21132,70 @@
       <c r="B33" s="121">
         <v>18.0</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="G33" s="106">
-        <f t="shared" ref="G33:G37" si="3">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
-        <v>0</v>
+      <c r="C33" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="121">
         <v>19.0</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="G34" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="G35" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C35" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="G36" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C36" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="G37" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C37" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
@@ -20993,8 +21222,12 @@
       <c r="B40" s="121">
         <v>25.0</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="E40" s="109"/>
+      <c r="C40" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="106">
         <f t="shared" ref="G40:G41" si="4">IF((E40-C40)*24&lt;=4,(E40-C40)*24,(E40-C40)*24-1)</f>
         <v>0</v>
@@ -21004,8 +21237,12 @@
       <c r="B41" s="121">
         <v>26.0</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="E41" s="109"/>
+      <c r="C41" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="106">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21035,8 +21272,12 @@
       <c r="B44" s="121">
         <v>29.0</v>
       </c>
-      <c r="C44" s="109"/>
-      <c r="E44" s="109"/>
+      <c r="C44" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="106">
         <f>IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
         <v>0</v>
@@ -22079,24 +22320,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Alina Ariosa.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1319,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1602,6 +1602,9 @@
     </xf>
     <xf borderId="31" fillId="12" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12770,6 +12773,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14361,6 +14365,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -15976,6 +15981,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17564,6 +17570,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19172,6 +19179,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19445,10 +19453,10 @@
       <c r="B23" s="121">
         <v>8.0</v>
       </c>
-      <c r="C23" s="127" t="n">
+      <c r="C23" s="129" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E23" s="127" t="n">
+      <c r="E23" s="129" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G23" s="106">
@@ -19460,10 +19468,10 @@
       <c r="B24" s="121">
         <v>9.0</v>
       </c>
-      <c r="C24" s="127" t="n">
+      <c r="C24" s="129" t="n">
         <v>0.375</v>
       </c>
-      <c r="E24" s="127" t="n">
+      <c r="E24" s="129" t="n">
         <v>0.75</v>
       </c>
       <c r="G24" s="106">
@@ -19475,10 +19483,10 @@
       <c r="B25" s="121">
         <v>10.0</v>
       </c>
-      <c r="C25" s="127" t="n">
+      <c r="C25" s="129" t="n">
         <v>0.375</v>
       </c>
-      <c r="E25" s="127" t="n">
+      <c r="E25" s="129" t="n">
         <v>0.75</v>
       </c>
       <c r="G25" s="106">
@@ -19510,10 +19518,10 @@
       <c r="B28" s="121">
         <v>13.0</v>
       </c>
-      <c r="C28" s="127" t="n">
+      <c r="C28" s="129" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E28" s="127" t="n">
+      <c r="E28" s="129" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G28" s="106">
@@ -19525,10 +19533,10 @@
       <c r="B29" s="121">
         <v>14.0</v>
       </c>
-      <c r="C29" s="127" t="n">
+      <c r="C29" s="129" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E29" s="127" t="n">
+      <c r="E29" s="129" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G29" s="106">
@@ -19540,10 +19548,10 @@
       <c r="B30" s="121">
         <v>15.0</v>
       </c>
-      <c r="C30" s="127" t="n">
+      <c r="C30" s="129" t="n">
         <v>0.375</v>
       </c>
-      <c r="E30" s="127" t="n">
+      <c r="E30" s="129" t="n">
         <v>0.75</v>
       </c>
       <c r="G30" s="106">
@@ -19555,10 +19563,10 @@
       <c r="B31" s="121">
         <v>16.0</v>
       </c>
-      <c r="C31" s="127" t="n">
+      <c r="C31" s="129" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E31" s="127" t="n">
+      <c r="E31" s="129" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G31" s="106">
@@ -19570,10 +19578,10 @@
       <c r="B32" s="121">
         <v>17.0</v>
       </c>
-      <c r="C32" s="127" t="n">
+      <c r="C32" s="129" t="n">
         <v>0.375</v>
       </c>
-      <c r="E32" s="127" t="n">
+      <c r="E32" s="129" t="n">
         <v>0.75</v>
       </c>
       <c r="G32" s="106">
@@ -19605,10 +19613,10 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="127" t="n">
+      <c r="C35" s="129" t="n">
         <v>0.375</v>
       </c>
-      <c r="E35" s="127" t="n">
+      <c r="E35" s="129" t="n">
         <v>0.75</v>
       </c>
       <c r="G35" s="106">
@@ -19620,10 +19628,10 @@
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="127" t="n">
+      <c r="C36" s="129" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E36" s="127" t="n">
+      <c r="E36" s="129" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G36" s="106">
@@ -19635,10 +19643,10 @@
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="127" t="n">
+      <c r="C37" s="129" t="n">
         <v>0.375</v>
       </c>
-      <c r="E37" s="127" t="n">
+      <c r="E37" s="129" t="n">
         <v>0.75</v>
       </c>
       <c r="G37" s="106">
@@ -19650,10 +19658,10 @@
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="127" t="n">
+      <c r="C38" s="129" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E38" s="127" t="n">
+      <c r="E38" s="129" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G38" s="106">
@@ -19695,8 +19703,12 @@
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="E42" s="109"/>
+      <c r="C42" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="106">
         <f t="shared" ref="G42:G45" si="5">IF((E42-C42)*24&lt;=4,(E42-C42)*24,(E42-C42)*24-1)</f>
         <v>0</v>
@@ -19706,8 +19718,12 @@
       <c r="B43" s="121">
         <v>28.0</v>
       </c>
-      <c r="C43" s="109"/>
-      <c r="E43" s="109"/>
+      <c r="C43" s="129" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E43" s="129" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G43" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19717,8 +19733,12 @@
       <c r="B44" s="121">
         <v>29.0</v>
       </c>
-      <c r="C44" s="109"/>
-      <c r="E44" s="109"/>
+      <c r="C44" s="129" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E44" s="129" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G44" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19728,8 +19748,12 @@
       <c r="B45" s="121">
         <v>30.0</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20732,6 +20756,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22299,6 +22324,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
